--- a/2017 05 08 - IPT100 - Insoft - Demo Preparation Estimations V1.0.xlsx
+++ b/2017 05 08 - IPT100 - Insoft - Demo Preparation Estimations V1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>Activity View</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>Work time (days)</t>
+  </si>
+  <si>
+    <t>Management and estimations</t>
+  </si>
+  <si>
+    <t>Management</t>
   </si>
 </sst>
 </file>
@@ -227,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -428,156 +440,166 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:S34"/>
+  <dimension ref="B4:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -885,50 +907,51 @@
     <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="83.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="19" max="20" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:19">
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="52"/>
+      <c r="M4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="60" customHeight="1">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="32" t="s">
         <v>14</v>
       </c>
@@ -936,23 +959,23 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="26"/>
       <c r="L5" s="27"/>
-      <c r="M5" s="17">
+      <c r="M5" s="14">
         <v>3</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="14">
         <v>2</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="2" t="s">
+      <c r="P5" s="23"/>
+      <c r="Q5" s="9" t="s">
         <v>28</v>
       </c>
       <c r="S5">
@@ -961,82 +984,82 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="28"/>
       <c r="L6" s="29"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="3" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="2"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="9"/>
       <c r="S6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="40"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="30"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="3" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="2"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="9"/>
       <c r="S7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="36.75" customHeight="1">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42" t="s">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43">
-        <v>0</v>
-      </c>
-      <c r="N8" s="43">
-        <v>0</v>
-      </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="S8">
@@ -1045,32 +1068,32 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="28.5" customHeight="1">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="2" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="12">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="3">
         <v>0.5</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="S9">
@@ -1079,34 +1102,34 @@
       </c>
     </row>
     <row r="10" spans="2:19" ht="51" customHeight="1">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="45" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="43">
-        <v>0</v>
-      </c>
-      <c r="N10" s="43">
-        <v>0</v>
-      </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44" t="s">
+      <c r="L10" s="45"/>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="S10">
@@ -1115,34 +1138,34 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="31.5" customHeight="1">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="9" t="s">
+      <c r="J11" s="47"/>
+      <c r="K11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12">
+      <c r="L11" s="50"/>
+      <c r="M11" s="3">
         <v>3</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="3">
         <v>0.5</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="S11">
@@ -1151,10 +1174,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="48" customHeight="1">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="32" t="s">
         <v>33</v>
       </c>
@@ -1162,23 +1185,23 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17">
+      <c r="J12" s="18"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="14">
         <v>3</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="14">
         <v>1</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="3" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="S12">
@@ -1187,24 +1210,24 @@
       </c>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="35"/>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="3" t="s">
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="3" t="s">
+      <c r="P13" s="24"/>
+      <c r="Q13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="S13">
@@ -1213,24 +1236,24 @@
       </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="35"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="3" t="s">
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="24"/>
+      <c r="Q14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="S14">
@@ -1239,24 +1262,24 @@
       </c>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="3" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="3" t="s">
+      <c r="P15" s="25"/>
+      <c r="Q15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="S15">
@@ -1265,34 +1288,34 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="51" customHeight="1">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="16" t="s">
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="9" t="s">
+      <c r="J16" s="47"/>
+      <c r="K16" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12">
+      <c r="L16" s="50"/>
+      <c r="M16" s="3">
         <v>3</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="3">
         <v>1</v>
       </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="S16">
@@ -1301,34 +1324,34 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="30" customHeight="1">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="46" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="42" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="49" t="s">
+      <c r="J17" s="8"/>
+      <c r="K17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="43">
-        <v>0</v>
-      </c>
-      <c r="N17" s="43">
-        <v>0</v>
-      </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44" t="s">
+      <c r="L17" s="42"/>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="S17">
@@ -1337,34 +1360,34 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="31.5" customHeight="1">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="46" t="s">
+      <c r="J18" s="43"/>
+      <c r="K18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="52">
-        <v>0</v>
-      </c>
-      <c r="N18" s="52">
-        <v>0</v>
-      </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44" t="s">
+      <c r="L18" s="45"/>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="S18">
@@ -1373,34 +1396,34 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="32.25" customHeight="1">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="46" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="42" t="s">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="46" t="s">
+      <c r="J19" s="8"/>
+      <c r="K19" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="43">
-        <v>0</v>
-      </c>
-      <c r="N19" s="43">
-        <v>0</v>
-      </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44" t="s">
+      <c r="L19" s="45"/>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="S19">
@@ -1409,32 +1432,32 @@
       </c>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="12">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="3">
         <v>3</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="3">
         <v>1</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3" t="s">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="S20">
@@ -1443,194 +1466,257 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="31.5" customHeight="1">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="49" t="s">
+      <c r="J21" s="8"/>
+      <c r="K21" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="43">
-        <v>0</v>
-      </c>
-      <c r="N21" s="43">
-        <v>0</v>
-      </c>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
       <c r="S21">
         <f>IF(Q21="Overtime",M21+N21,0)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="2:19">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="55">
+        <v>2</v>
+      </c>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22">
+        <f>IF(Q22="Overtime",M22+N22,0)</f>
+        <v>2</v>
+      </c>
+    </row>
     <row r="25" spans="2:19">
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2">
-        <f>SUM(M5:M21)</f>
-        <v>17</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <f>SUM(M5:M22)</f>
+        <v>19</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="2:19">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2">
-        <f>SUM(N5:N21)</f>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
+        <f>SUM(N5:N22)</f>
         <v>6</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="2:19">
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2">
-        <f>SUM(S5:S21)</f>
-        <v>15.5</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9">
+        <f>SUM(S5:S22)</f>
+        <v>17.5</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9">
         <f>H31/7.5</f>
-        <v>3.0666666666666669</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
         <v>50</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8">
         <f>H27+H26</f>
-        <v>23</v>
-      </c>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
+        <v>25</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="6">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="10">
         <f>H29*100/H30</f>
-        <v>6.1333333333333337</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
+        <v>6.6666666666666679</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="4:10">
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8">
         <f>H31*25</f>
-        <v>575</v>
-      </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
+        <v>625</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="4:10">
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9">
         <f>H28*25</f>
-        <v>387.5</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+        <v>437.5</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
+  <mergeCells count="82">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B12:C15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="Q5:Q7"/>
@@ -1645,53 +1731,24 @@
     <mergeCell ref="I5:J7"/>
     <mergeCell ref="K5:L7"/>
     <mergeCell ref="D5:H7"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
     <mergeCell ref="D12:H15"/>
-    <mergeCell ref="B12:C15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
